--- a/Data/russia_inflation.xlsx
+++ b/Data/russia_inflation.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Python\pension-loss-calculator\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\DOWNLOAD\SOFT\pension-loss-calculator\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5DB0E7CC-219E-44C1-B871-0C9750E1162B}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68C8D6CC-56E4-43E9-9EF2-0E52E8AA28B7}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="26124" windowHeight="11712" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -958,10 +958,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C27"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -984,164 +984,164 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
-        <v>2000</v>
+        <v>2010</v>
       </c>
       <c r="B2" s="2">
-        <v>20.2</v>
+        <v>8.8000000000000007</v>
       </c>
       <c r="C2" s="2">
-        <v>25</v>
+        <v>6.3</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
-        <v>2001</v>
+        <v>2011</v>
       </c>
       <c r="B3" s="2">
-        <v>18.600000000000001</v>
+        <v>6.1</v>
       </c>
       <c r="C3" s="2">
-        <v>39</v>
+        <v>8.8000000000000007</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
-        <v>2002</v>
+        <v>2012</v>
       </c>
       <c r="B4" s="2">
-        <v>15.1</v>
+        <v>6.6</v>
       </c>
       <c r="C4" s="2">
-        <v>20</v>
+        <v>10.65</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
-        <v>2003</v>
+        <v>2013</v>
       </c>
       <c r="B5" s="2">
-        <v>12</v>
+        <v>6.5</v>
       </c>
       <c r="C5" s="2">
-        <v>18</v>
+        <v>10.119999999999999</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
-        <v>2004</v>
+        <v>2014</v>
       </c>
       <c r="B6" s="2">
-        <v>11.7</v>
+        <v>11.4</v>
       </c>
       <c r="C6" s="2">
-        <v>15.1</v>
+        <v>8.31</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
-        <v>2005</v>
+        <v>2015</v>
       </c>
       <c r="B7" s="2">
-        <v>10.9</v>
+        <v>12.9</v>
       </c>
       <c r="C7" s="2">
-        <v>15.3</v>
+        <v>11.4</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
-        <v>2006</v>
+        <v>2016</v>
       </c>
       <c r="B8" s="2">
-        <v>9</v>
+        <v>5.4</v>
       </c>
       <c r="C8" s="2">
-        <v>13</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
-        <v>2007</v>
+        <v>2017</v>
       </c>
       <c r="B9" s="2">
-        <v>11.9</v>
-      </c>
-      <c r="C9" s="2">
-        <v>15</v>
+        <v>2.5</v>
+      </c>
+      <c r="C9" s="1">
+        <v>5.8</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
-        <v>2008</v>
+        <v>2018</v>
       </c>
       <c r="B10" s="2">
-        <v>13.3</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="C10" s="2">
-        <v>18</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
-        <v>2009</v>
+        <v>2019</v>
       </c>
       <c r="B11" s="2">
-        <v>8.8000000000000007</v>
+        <v>3</v>
       </c>
       <c r="C11" s="2">
-        <v>7.7</v>
+        <v>7.05</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
-        <v>2010</v>
+        <v>2020</v>
       </c>
       <c r="B12" s="2">
-        <v>8.8000000000000007</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="C12" s="2">
-        <v>8.8000000000000007</v>
+        <v>6.6</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
-        <v>2011</v>
+        <v>2021</v>
       </c>
       <c r="B13" s="2">
-        <v>6.1</v>
+        <v>8.4</v>
       </c>
       <c r="C13" s="2">
-        <v>8.8000000000000007</v>
+        <v>6.3</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
-        <v>2012</v>
+        <v>2022</v>
       </c>
       <c r="B14" s="2">
-        <v>6.6</v>
+        <v>11.9</v>
       </c>
       <c r="C14" s="2">
-        <v>7</v>
+        <v>19.46</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
-        <v>2013</v>
+        <v>2023</v>
       </c>
       <c r="B15" s="2">
-        <v>6.5</v>
+        <v>7.4</v>
       </c>
       <c r="C15" s="2">
-        <v>11</v>
+        <v>4.8</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
-        <v>2014</v>
+        <v>2024</v>
       </c>
       <c r="B16" s="2">
-        <v>11.4</v>
+        <v>9.51</v>
       </c>
       <c r="C16" s="2">
         <v>7.5</v>
@@ -1149,127 +1149,17 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
-        <v>2015</v>
+        <v>2025</v>
       </c>
       <c r="B17" s="2">
-        <v>12.9</v>
+        <v>5.26</v>
       </c>
       <c r="C17" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18" s="2">
-        <v>2016</v>
-      </c>
-      <c r="B18" s="2">
-        <v>5.4</v>
-      </c>
-      <c r="C18" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19" s="2">
-        <v>2017</v>
-      </c>
-      <c r="B19" s="2">
-        <v>2.5</v>
-      </c>
-      <c r="C19" s="1">
-        <v>5.4</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A20" s="2">
-        <v>2018</v>
-      </c>
-      <c r="B20" s="2">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="C20" s="2">
-        <v>3.7</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A21" s="2">
-        <v>2019</v>
-      </c>
-      <c r="B21" s="2">
-        <v>3</v>
-      </c>
-      <c r="C21" s="2">
-        <v>7.05</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A22" s="2">
-        <v>2020</v>
-      </c>
-      <c r="B22" s="2">
-        <v>4.9000000000000004</v>
-      </c>
-      <c r="C22" s="2">
-        <v>6.6</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A23" s="2">
-        <v>2021</v>
-      </c>
-      <c r="B23" s="2">
-        <v>8.4</v>
-      </c>
-      <c r="C23" s="2">
-        <v>8.6</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A24" s="2">
-        <v>2022</v>
-      </c>
-      <c r="B24" s="2">
-        <v>11.9</v>
-      </c>
-      <c r="C24" s="2">
-        <v>10.3</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A25" s="2">
-        <v>2023</v>
-      </c>
-      <c r="B25" s="2">
-        <v>7.4</v>
-      </c>
-      <c r="C25" s="2">
-        <v>7.5</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A26" s="2">
-        <v>2024</v>
-      </c>
-      <c r="B26" s="2">
-        <v>9.51</v>
-      </c>
-      <c r="C26" s="2">
-        <v>7.5</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A27" s="2">
-        <v>2025</v>
-      </c>
-      <c r="B27" s="2">
-        <v>5.26</v>
-      </c>
-      <c r="C27" s="2">
         <v>9.5</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:C28">
+  <sortState ref="A2:C18">
     <sortCondition ref="A1"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
